--- a/Trip.xlsx
+++ b/Trip.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randy\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
+    <sheet name="Excursions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Flight 3:45 EST - 11:39 AST</t>
   </si>
@@ -106,13 +111,100 @@
   </si>
   <si>
     <t>Excursions</t>
+  </si>
+  <si>
+    <t>Master's Camp and Sled Dog</t>
+  </si>
+  <si>
+    <t>Eagle Preserve Rafting and Wildlife</t>
+  </si>
+  <si>
+    <t>Takshanuk Mountain Trail 4x4</t>
+  </si>
+  <si>
+    <t>Kroschel Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>830-1145</t>
+  </si>
+  <si>
+    <t>930-1245</t>
+  </si>
+  <si>
+    <t>1230-345</t>
+  </si>
+  <si>
+    <t>130-400</t>
+  </si>
+  <si>
+    <t>In Port</t>
+  </si>
+  <si>
+    <t>700am-830pm</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>730-145</t>
+  </si>
+  <si>
+    <t>130-745</t>
+  </si>
+  <si>
+    <t>1st Choice</t>
+  </si>
+  <si>
+    <t>Private Whale Watching</t>
+  </si>
+  <si>
+    <t>Mendenhall Glaicer Guide Hali Hike</t>
+  </si>
+  <si>
+    <t>Mendenhall Glacier and Whale Quest</t>
+  </si>
+  <si>
+    <t>Jeep and Canoe Safari</t>
+  </si>
+  <si>
+    <t>800-1230</t>
+  </si>
+  <si>
+    <t>700-1100</t>
+  </si>
+  <si>
+    <t>745-100</t>
+  </si>
+  <si>
+    <t>630am-400pm</t>
+  </si>
+  <si>
+    <t>1000am-600pm</t>
+  </si>
+  <si>
+    <t>1100-330</t>
+  </si>
+  <si>
+    <t>1130-230</t>
+  </si>
+  <si>
+    <t>Alaska Rainforest Family Advneture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -123,6 +215,17 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,11 +262,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,16 +282,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -196,6 +310,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -546,10 +663,10 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -558,10 +675,10 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -576,10 +693,10 @@
       <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -587,25 +704,25 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
@@ -671,6 +788,137 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:B3"/>
@@ -695,13 +943,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8">
+        <v>42930</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9">
+        <v>199.95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9">
+        <v>199.95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9">
+        <v>219.95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>42931</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9">
+        <v>167</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9">
+        <v>99.95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="9">
+        <v>189.95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>42932</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="9">
+        <v>169.95</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9">
+        <v>199.95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A11" r:id="rId7"/>
+    <hyperlink ref="A15" r:id="rId8" display="Wildlife Safari and Beach Bonfire"/>
+    <hyperlink ref="A14" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Trip.xlsx
+++ b/Trip.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20430" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Flight 3:45 EST - 11:39 AST</t>
   </si>
@@ -195,6 +190,69 @@
   </si>
   <si>
     <t>Alaska Rainforest Family Advneture</t>
+  </si>
+  <si>
+    <t>Adventure Park and ZipLine</t>
+  </si>
+  <si>
+    <t>Husky Homestead Tour</t>
+  </si>
+  <si>
+    <t>Denali Photography Workshop</t>
+  </si>
+  <si>
+    <t>6:00 - 9:00 PM</t>
+  </si>
+  <si>
+    <t>6:50 - 9:20 PM</t>
+  </si>
+  <si>
+    <t>Black Diamon ATV</t>
+  </si>
+  <si>
+    <t>5:45 - 9:15, 7:15 - 10:45, 8:15 - 11:45, 10:00 - 1:30</t>
+  </si>
+  <si>
+    <t>Denali Zipline Adventure</t>
+  </si>
+  <si>
+    <t>4 - 7, 5 - 8, 6 - 9, 7 - 10, 8 - 11</t>
+  </si>
+  <si>
+    <t>7:15 - 10:45 AM, 10:00 PM - 1:30 AM</t>
+  </si>
+  <si>
+    <t>8 - 11 AM, 10 - 1 PM</t>
+  </si>
+  <si>
+    <t>8:20 - 10:50 AM</t>
+  </si>
+  <si>
+    <t>7:15 - 10:15 AM</t>
+  </si>
+  <si>
+    <t>McKinley Wilderness Trail Ride</t>
+  </si>
+  <si>
+    <t>5:00 - 7:00 PM</t>
+  </si>
+  <si>
+    <t>Byers Lake Nature Walk</t>
+  </si>
+  <si>
+    <t>4:45 - 7:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Dog Kennels </t>
+  </si>
+  <si>
+    <t>1:00 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Talkeetna Zip Line Adventure</t>
+  </si>
+  <si>
+    <t>2:00 - 8:30 PM</t>
   </si>
 </sst>
 </file>
@@ -267,7 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,12 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,6 +349,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -663,7 +724,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -678,22 +739,22 @@
       <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -704,7 +765,7 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -717,12 +778,12 @@
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
@@ -789,14 +850,94 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -943,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,33 +1098,33 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
         <v>42930</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>149.94999999999999</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -999,33 +1140,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>199.95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>199.95</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>219.95</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1034,46 +1175,53 @@
       <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="G6" s="11">
+        <f>B6*3</f>
+        <v>659.84999999999991</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>42931</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>99.95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>189.95</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1082,35 +1230,39 @@
       <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="G11" s="11">
+        <f>B11*3</f>
+        <v>569.84999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>42932</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>169.95</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>199.95</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1119,27 +1271,36 @@
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="11">
+        <f>B15*3</f>
+        <v>599.84999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="11">
+        <f>SUM(G6:G15)</f>
+        <v>1829.5499999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Trip.xlsx
+++ b/Trip.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20430" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20430" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
     <sheet name="Excursions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Flight 3:45 EST - 11:39 AST</t>
   </si>
@@ -189,9 +189,6 @@
     <t>1130-230</t>
   </si>
   <si>
-    <t>Alaska Rainforest Family Advneture</t>
-  </si>
-  <si>
     <t>Adventure Park and ZipLine</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>8 - 11 AM, 10 - 1 PM</t>
   </si>
   <si>
-    <t>8:20 - 10:50 AM</t>
-  </si>
-  <si>
     <t>7:15 - 10:15 AM</t>
   </si>
   <si>
@@ -253,6 +247,9 @@
   </si>
   <si>
     <t>2:00 - 8:30 PM</t>
+  </si>
+  <si>
+    <t>Alaska Rainforest Family Adventure</t>
   </si>
 </sst>
 </file>
@@ -288,12 +285,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -325,7 +340,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,13 +366,25 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,7 +751,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -739,22 +766,22 @@
       <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -765,11 +792,11 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -778,12 +805,12 @@
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
@@ -851,91 +878,85 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>66</v>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1108,7 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,12 +1196,12 @@
       <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f>B6*3</f>
         <v>659.84999999999991</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1230,7 +1251,7 @@
       <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f>B11*3</f>
         <v>569.84999999999991</v>
       </c>
@@ -1260,7 +1281,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <v>199.95</v>
@@ -1271,7 +1292,7 @@
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <f>B15*3</f>
         <v>599.84999999999991</v>
       </c>
@@ -1281,7 +1302,7 @@
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="7:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <f>SUM(G6:G15)</f>
         <v>1829.5499999999997</v>
       </c>
